--- a/Probabilidad y Estadistica/Clase 01 - Caso practico.xlsx
+++ b/Probabilidad y Estadistica/Clase 01 - Caso practico.xlsx
@@ -16,29 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Caso practico: </t>
   </si>
   <si>
-    <t>Se tomo una muesra de 40 reclamos en una empresa por diversas causas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLegada tarde: </t>
-  </si>
-  <si>
-    <t>Fluidez:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modales: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humedad: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otros: </t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -49,15 +31,131 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Se tomo una muestra de 40 reclamos en una empresa por diversas causas.</t>
+  </si>
+  <si>
+    <t>Reclamos</t>
+  </si>
+  <si>
+    <t>Frecuencia relativa</t>
+  </si>
+  <si>
+    <t>Reclamos por dia</t>
+  </si>
+  <si>
+    <t>Luego se tomo durante 30 dias la cantidad de reclamos diarios.</t>
+  </si>
+  <si>
+    <t>0 Reclamos</t>
+  </si>
+  <si>
+    <t>1 Reclamo</t>
+  </si>
+  <si>
+    <t>2 Reclamos</t>
+  </si>
+  <si>
+    <t>3 Reclamos</t>
+  </si>
+  <si>
+    <t>4 Reclamos</t>
+  </si>
+  <si>
+    <t>5 Reclamos</t>
+  </si>
+  <si>
+    <t>6 Reclamos</t>
+  </si>
+  <si>
+    <t>Frecuencia acumulada</t>
+  </si>
+  <si>
+    <t>Frecuencia relativa acumulada</t>
+  </si>
+  <si>
+    <t>Luego, se toma una muestra de 40 probetas de hormigon y se obtiene una tabla</t>
+  </si>
+  <si>
+    <t>Intervalos</t>
+  </si>
+  <si>
+    <t>11 a 12</t>
+  </si>
+  <si>
+    <t>12 a 13</t>
+  </si>
+  <si>
+    <t>13 a 14</t>
+  </si>
+  <si>
+    <t>14 a 15</t>
+  </si>
+  <si>
+    <t>15 a 16</t>
+  </si>
+  <si>
+    <t>Frecuencia Relativa</t>
+  </si>
+  <si>
+    <t>Frecuencia absoluta</t>
+  </si>
+  <si>
+    <t>Frecuencia relativa absoluta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llegada tarde </t>
+  </si>
+  <si>
+    <t>Fluidez</t>
+  </si>
+  <si>
+    <t>Humedad</t>
+  </si>
+  <si>
+    <t>Modales</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,21 +194,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,11 +287,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>Hoja1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cantidad</c:v>
+                  <c:v>Llegada tarde </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -160,47 +299,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$6:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LLegada tarde: </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fluidez:</c:v>
+              <c:f>Hoja1!$D$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frecuencia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Modales: </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Humedad: </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Otros: </c:v>
+                  <c:v>Frecuencia relativas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$C$10</c:f>
+              <c:f>Hoja1!$D$6:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -211,11 +338,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$5</c:f>
+              <c:f>Hoja1!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Frecuencia</c:v>
+                  <c:v>Fluidez</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,47 +350,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$6:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LLegada tarde: </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fluidez:</c:v>
+              <c:f>Hoja1!$D$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frecuencia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Modales: </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Humedad: </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Otros: </c:v>
+                  <c:v>Frecuencia relativas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$6:$D$10</c:f>
+              <c:f>Hoja1!$D$7:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-2</c:v>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -274,11 +389,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$5</c:f>
+              <c:f>Hoja1!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Frecuencia relativas</c:v>
+                  <c:v>Modales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -286,46 +401,136 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$6:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LLegada tarde: </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fluidez:</c:v>
+              <c:f>Hoja1!$D$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frecuencia</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Modales: </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Humedad: </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Otros: </c:v>
+                  <c:v>Frecuencia relativas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$6:$E$10</c:f>
+              <c:f>Hoja1!$D$8:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0%">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humedad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frecuencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frecuencia relativas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Otros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frecuencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frecuencia relativas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -395,20 +600,1071 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$6:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Llegada tarde </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fluidez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Humedad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$6:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Llegada tarde </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fluidez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Humedad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia relativas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$6:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Llegada tarde </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fluidez</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Modales</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Humedad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Otros</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0370889806495137E-2"/>
+          <c:y val="3.6238320375104986E-2"/>
+          <c:w val="0.9208148082283375"/>
+          <c:h val="0.88199376812532837"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$40:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Reclamo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6 Reclamos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$40:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107706624"/>
+        <c:axId val="107731200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107706624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107731200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107731200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107706624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66668604885927729"/>
+          <c:y val="0.21889228479112119"/>
+          <c:w val="0.12557042560492659"/>
+          <c:h val="5.9022134360533787E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$40:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Reclamo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6 Reclamos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$40:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6659999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3329999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3329999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia relativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$40:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Reclamo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6 Reclamos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$40:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6659999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3329999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3329999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia acumulada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$40:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Reclamo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6 Reclamos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$40:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia relativa acumulada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$C$40:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Reclamo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5 Reclamos</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6 Reclamos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$40:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110692224"/>
+        <c:axId val="110693760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110692224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110693760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110693760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110692224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16063460819380074"/>
+          <c:y val="3.278705297173215E-2"/>
+          <c:w val="0.85061359302111283"/>
+          <c:h val="0.89323245295531561"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia Relativa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$73:$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11 a 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12 a 13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13 a 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14 a 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 a 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$73:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia relativa absoluta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$73:$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11 a 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12 a 13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13 a 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14 a 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15 a 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$73:$H$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="42925440"/>
+        <c:axId val="58878592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42925440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58878592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58878592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42925440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22183223947152306"/>
+          <c:y val="9.813095521282332E-2"/>
+          <c:w val="0.30259051321901376"/>
+          <c:h val="0.17816650424516556"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -422,6 +1678,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="9 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="10 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -717,127 +2093,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="17">
+        <v>40</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="G39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F40" s="10">
+        <f>PRODUCT(E40)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="6">
+        <v>10</v>
+      </c>
+      <c r="H40" s="25">
+        <f>G40/30</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6">
+        <v>7</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" ref="F41:F46" si="0">PRODUCT(E41)</f>
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="G41" s="6">
+        <v>17</v>
+      </c>
+      <c r="H41" s="25">
+        <f t="shared" ref="H41:H46" si="1">G41/30</f>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.1666</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1666</v>
+      </c>
+      <c r="G42" s="6">
+        <v>22</v>
+      </c>
+      <c r="H42" s="25">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="6">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.1333</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1333</v>
+      </c>
+      <c r="G43" s="6">
+        <v>26</v>
+      </c>
+      <c r="H43" s="25">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="E44" s="9">
+        <v>6.6659999999999997E-2</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="0"/>
+        <v>6.6659999999999997E-2</v>
+      </c>
+      <c r="G44" s="6">
+        <v>28</v>
+      </c>
+      <c r="H44" s="25">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="C45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>29</v>
+      </c>
+      <c r="H45" s="25">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="G46" s="6">
+        <v>30</v>
+      </c>
+      <c r="H46" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D72" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D73" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="22">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="F73" s="28">
+        <f>E73/40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G73" s="22">
+        <v>3</v>
+      </c>
+      <c r="H73" s="27">
+        <f>G73/40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D74" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="22">
+        <v>11</v>
+      </c>
+      <c r="F74" s="28">
+        <f t="shared" ref="F74:F77" si="2">E74/40</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G74" s="22">
+        <v>14</v>
+      </c>
+      <c r="H74" s="27">
+        <f t="shared" ref="H74:H77" si="3">G74/40</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D75" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="22">
+        <v>17</v>
+      </c>
+      <c r="F75" s="28">
+        <f t="shared" si="2"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G75" s="22">
+        <v>31</v>
+      </c>
+      <c r="H75" s="27">
+        <f t="shared" si="3"/>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D76" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="22">
+        <v>7</v>
+      </c>
+      <c r="F76" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G76" s="22">
+        <v>38</v>
+      </c>
+      <c r="H76" s="27">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D77" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F77" s="28">
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="G77" s="22">
         <v>40</v>
       </c>
-      <c r="D11" s="5">
+      <c r="H77" s="27">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B37:H37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
